--- a/biology/Botanique/Jacksonia/Jacksonia.xlsx
+++ b/biology/Botanique/Jacksonia/Jacksonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacksonia est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses),  endémique d'Australie, qui comprend une quarantaine espèces acceptées.
-Ce sont des arbrisseaux, des  arbustes ou de petits arbres, qui se rencontrent dans les zones arides et semi-arides (quelques espèces dans les zones tropicales) ou dans les forêts sclérophylles, les bois et les landes, souvent sur des arêtes rocheuses ou des pentes montagneuses. Le genre est présent dans tous les États australiens, sauf l'Australie-Méridionale[2].
+Ce sont des arbrisseaux, des  arbustes ou de petits arbres, qui se rencontrent dans les zones arides et semi-arides (quelques espèces dans les zones tropicales) ou dans les forêts sclérophylles, les bois et les landes, souvent sur des arêtes rocheuses ou des pentes montagneuses. Le genre est présent dans tous les États australiens, sauf l'Australie-Méridionale.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (23 septembre 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (23 septembre 2018) :
 Jacksonia aculeata W.Fitzg.
 Jacksonia alata Benth.
 Jacksonia angulata Benth.
